--- a/metro_class_share_change.xlsx
+++ b/metro_class_share_change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Akron, OH</t>
   </si>
@@ -708,25 +708,10 @@
     <t>Yuma, AZ</t>
   </si>
   <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
     <t>GeoFips</t>
   </si>
   <si>
     <t>Metro name</t>
-  </si>
-  <si>
-    <t>fips</t>
   </si>
   <si>
     <t>Id</t>
@@ -790,10 +775,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="I238" sqref="I238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1109,37 +1093,36 @@
     <col min="3" max="3" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1168,7 +1151,7 @@
         <v>0.58999999999999986</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1197,7 +1180,7 @@
         <v>6.9400000000000013</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1226,7 +1209,7 @@
         <v>0.28999999999999915</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1255,7 +1238,7 @@
         <v>2.8499999999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1284,7 +1267,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1313,7 +1296,7 @@
         <v>4.4200000000000017</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1342,7 +1325,7 @@
         <v>-1.8399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1371,7 +1354,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1400,7 +1383,7 @@
         <v>-1.370000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1429,7 +1412,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1458,7 +1441,7 @@
         <v>3.3200000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1487,7 +1470,7 @@
         <v>7.0000000000000284E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1516,7 +1499,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1545,7 +1528,7 @@
         <v>2.5199999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7778,129 +7761,6 @@
       </c>
       <c r="I230" s="1">
         <v>-0.77999999999999936</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="B232" t="s">
-        <v>235</v>
-      </c>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="B233">
-        <v>30</v>
-      </c>
-      <c r="C233" t="s">
-        <v>229</v>
-      </c>
-      <c r="D233" s="1">
-        <v>30.56</v>
-      </c>
-      <c r="E233" s="1">
-        <v>52.61</v>
-      </c>
-      <c r="F233" s="1">
-        <v>16.82</v>
-      </c>
-      <c r="G233" s="1">
-        <v>-3.879999999999999</v>
-      </c>
-      <c r="H233" s="1">
-        <v>-2.7000000000000028</v>
-      </c>
-      <c r="I233" s="1">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="B234">
-        <v>38</v>
-      </c>
-      <c r="C234" t="s">
-        <v>230</v>
-      </c>
-      <c r="D234" s="1">
-        <v>19.09</v>
-      </c>
-      <c r="E234" s="1">
-        <v>56.23</v>
-      </c>
-      <c r="F234" s="1">
-        <v>24.68</v>
-      </c>
-      <c r="G234" s="1">
-        <v>-7.7399999999999984</v>
-      </c>
-      <c r="H234" s="1">
-        <v>-4.5900000000000034</v>
-      </c>
-      <c r="I234" s="1">
-        <v>12.33</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
-      <c r="B235">
-        <v>46</v>
-      </c>
-      <c r="C235" t="s">
-        <v>231</v>
-      </c>
-      <c r="D235" s="1">
-        <v>22.67</v>
-      </c>
-      <c r="E235" s="1">
-        <v>57.34</v>
-      </c>
-      <c r="F235" s="1">
-        <v>20</v>
-      </c>
-      <c r="G235" s="1">
-        <v>-3.75</v>
-      </c>
-      <c r="H235" s="1">
-        <v>-3.2299999999999969</v>
-      </c>
-      <c r="I235" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
-      <c r="B236">
-        <v>56</v>
-      </c>
-      <c r="C236" t="s">
-        <v>232</v>
-      </c>
-      <c r="D236" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="E236" s="1">
-        <v>55.35</v>
-      </c>
-      <c r="F236" s="1">
-        <v>20.75</v>
-      </c>
-      <c r="G236" s="1">
-        <v>-5.620000000000001</v>
-      </c>
-      <c r="H236" s="1">
-        <v>-2.9099999999999966</v>
-      </c>
-      <c r="I236" s="1">
-        <v>8.5299999999999994</v>
       </c>
     </row>
   </sheetData>
